--- a/1. Laporan hasil/hasil prediksi titik panas M2.xlsx
+++ b/1. Laporan hasil/hasil prediksi titik panas M2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\1. Laporan hasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8136A94-D4A3-4554-8A66-5BC34CEEFC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3564D912-9B02-4492-96A3-C98F6E68B990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C02A4CBB-8A9A-4123-9B82-C805245BB621}"/>
   </bookViews>
@@ -223,6 +223,12 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,12 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48416442-0497-465E-85AA-75735C87B184}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -587,39 +587,39 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43524</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="8">
         <v>8</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="8">
         <v>35</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>11</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="8">
         <v>50</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -666,56 +666,56 @@
       <c r="A3" s="6">
         <v>43555</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>18</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>14</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>18</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>36</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>14</v>
       </c>
       <c r="H3" s="3">
         <v>2019</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="12">
+      <c r="J3" s="8">
         <v>8</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="8">
         <v>18</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="8">
         <v>21</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="8">
         <v>75</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="8">
         <v>44</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="8">
         <v>116</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="8">
         <v>817</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="8">
         <v>4223</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="8">
         <v>3976</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="8">
         <v>1736</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="8">
         <v>45</v>
       </c>
     </row>
@@ -723,58 +723,58 @@
       <c r="A4" s="6">
         <v>43585</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>21</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>33</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>28</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="8">
         <v>40</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="8">
         <v>25</v>
       </c>
       <c r="H4" s="3">
         <v>2020</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>27</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>24</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>59</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="9">
         <v>60</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="9">
         <v>27</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="9">
         <v>24</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="9">
         <v>29</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="9">
         <v>65</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="9">
         <v>29</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="9">
         <v>40</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="9">
         <v>30</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="9">
         <v>8</v>
       </c>
     </row>
@@ -782,58 +782,58 @@
       <c r="A5" s="6">
         <v>43616</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>75</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>26</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>65</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>44</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <v>70</v>
       </c>
       <c r="H5" s="3">
         <v>2021</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <v>6</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <v>6</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="8">
         <v>15</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <v>62</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="8">
         <v>57</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="8">
         <v>62</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="8">
         <v>121</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="8">
         <v>94</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="8">
         <v>87</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="8">
         <v>51</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="8">
         <v>20</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="8">
         <v>23</v>
       </c>
     </row>
@@ -841,58 +841,58 @@
       <c r="A6" s="6">
         <v>43646</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>44</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>36</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>49</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>48</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <v>51</v>
       </c>
       <c r="H6" s="3">
         <v>2022</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>6</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>12</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="9">
         <v>41</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="9">
         <v>14</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="9">
         <v>43</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="9">
         <v>30</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="9">
         <v>64</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="9">
         <v>82</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="9">
         <v>40</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="9">
         <v>15</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="9">
         <v>10</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="9">
         <v>11</v>
       </c>
     </row>
@@ -900,58 +900,58 @@
       <c r="A7" s="6">
         <v>43677</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>116</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>43</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>104</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>51</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>105</v>
       </c>
       <c r="H7" s="3">
         <v>2023</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <v>3</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <v>11</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="8">
         <v>12</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <v>35</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="8">
         <v>48</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="8">
         <v>50</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="8">
         <v>56</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="8">
         <v>186</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="8">
         <v>2247</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="8">
         <v>3200</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="8">
         <v>390</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="8">
         <v>42</v>
       </c>
     </row>
@@ -959,19 +959,19 @@
       <c r="A8" s="6">
         <v>43708</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>817</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <v>112</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>812</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>61</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="8">
         <v>814</v>
       </c>
     </row>
@@ -979,19 +979,19 @@
       <c r="A9" s="6">
         <v>43738</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>4223</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <v>890</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>4202</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <v>1669</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <v>4207</v>
       </c>
     </row>
@@ -999,54 +999,54 @@
       <c r="A10" s="6">
         <v>43769</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>3976</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <v>4102</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>3973</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>5849</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <v>3985</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43799</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>1736</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>3613</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>1743</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>2948</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>1737</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1093,56 +1093,56 @@
       <c r="A12" s="6">
         <v>43830</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>45</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <v>2180</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>57</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>1745</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <v>49</v>
       </c>
       <c r="H12" s="3">
         <v>2019</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="12">
+      <c r="J12" s="8">
         <v>35</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="8">
         <v>14</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <v>33</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="8">
         <v>26</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="8">
         <v>36</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="8">
         <v>43</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="8">
         <v>112</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="8">
         <v>890</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="8">
         <v>4102</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="8">
         <v>3613</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="8">
         <v>2180</v>
       </c>
     </row>
@@ -1150,58 +1150,58 @@
       <c r="A13" s="7">
         <v>43861</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>27</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="9">
         <v>47</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <v>30</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="9">
         <v>53</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <v>31</v>
       </c>
       <c r="H13" s="3">
         <v>2020</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>47</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="9">
         <v>36</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="9">
         <v>78</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="9">
         <v>83</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="9">
         <v>86</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="9">
         <v>45</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="9">
         <v>39</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="9">
         <v>42</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="9">
         <v>40</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="9">
         <v>34</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="9">
         <v>25</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="9">
         <v>22</v>
       </c>
     </row>
@@ -1209,58 +1209,58 @@
       <c r="A14" s="7">
         <v>43890</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>24</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="9">
         <v>36</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>26</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>53</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>24</v>
       </c>
       <c r="H14" s="3">
         <v>2021</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="8">
         <v>39</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="8">
         <v>62</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="8">
         <v>35</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="8">
         <v>32</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="8">
         <v>40</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="8">
         <v>46</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="8">
         <v>58</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="8">
         <v>37</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="8">
         <v>59</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="8">
         <v>51</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="8">
         <v>34</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="8">
         <v>31</v>
       </c>
     </row>
@@ -1268,58 +1268,58 @@
       <c r="A15" s="7">
         <v>43921</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <v>59</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="9">
         <v>78</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>58</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="9">
         <v>64</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9">
         <v>57</v>
       </c>
       <c r="H15" s="3">
         <v>2022</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <v>34</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="9">
         <v>30</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="9">
         <v>33</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="9">
         <v>65</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="9">
         <v>35</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="9">
         <v>34</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="9">
         <v>36</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="9">
         <v>36</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="9">
         <v>33</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="9">
         <v>35</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="9">
         <v>35</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="9">
         <v>27</v>
       </c>
     </row>
@@ -1327,58 +1327,58 @@
       <c r="A16" s="7">
         <v>43951</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <v>60</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <v>83</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>62</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="9">
         <v>72</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9">
         <v>61</v>
       </c>
       <c r="H16" s="3">
         <v>2023</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="8">
         <v>32</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="8">
         <v>37</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="8">
         <v>38</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="8">
         <v>44</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="8">
         <v>80</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="8">
         <v>24</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="8">
         <v>23</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="8">
         <v>22</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="8">
         <v>175</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="8">
         <v>4755</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="8">
         <v>508</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1386,19 +1386,19 @@
       <c r="A17" s="7">
         <v>43982</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>27</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>86</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <v>45</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="9">
         <v>157</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <v>33</v>
       </c>
     </row>
@@ -1406,19 +1406,19 @@
       <c r="A18" s="7">
         <v>44012</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <v>24</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>45</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>24</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>69</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>25</v>
       </c>
     </row>
@@ -1426,54 +1426,54 @@
       <c r="A19" s="7">
         <v>44043</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="9">
         <v>29</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>39</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <v>32</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="9">
         <v>66</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="9">
         <v>32</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44074</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="9">
         <v>65</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="9">
         <v>42</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <v>62</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="9">
         <v>88</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <v>70</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -1520,56 +1520,56 @@
       <c r="A21" s="7">
         <v>44104</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="9">
         <v>29</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="9">
         <v>40</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="9">
         <v>39</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="9">
         <v>48</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <v>34</v>
       </c>
       <c r="H21" s="3">
         <v>2019</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="12">
+      <c r="J21" s="8">
         <v>11</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="8">
         <v>18</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="8">
         <v>28</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="8">
         <v>65</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="8">
         <v>49</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="8">
         <v>104</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="8">
         <v>812</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="8">
         <v>4202</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="8">
         <v>3973</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="8">
         <v>1743</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="8">
         <v>57</v>
       </c>
     </row>
@@ -1577,58 +1577,58 @@
       <c r="A22" s="7">
         <v>44135</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="9">
         <v>40</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="9">
         <v>34</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <v>48</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="9">
         <v>44</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <v>48</v>
       </c>
       <c r="H22" s="3">
         <v>2020</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="9">
         <v>30</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="9">
         <v>26</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="9">
         <v>58</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="9">
         <v>62</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="9">
         <v>45</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="9">
         <v>24</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="9">
         <v>32</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="9">
         <v>62</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="9">
         <v>39</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="9">
         <v>48</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="9">
         <v>27</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="9">
         <v>12</v>
       </c>
     </row>
@@ -1636,58 +1636,58 @@
       <c r="A23" s="7">
         <v>44165</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="9">
         <v>30</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="9">
         <v>25</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="9">
         <v>27</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="9">
         <v>27</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <v>26</v>
       </c>
       <c r="H23" s="3">
         <v>2021</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="8">
         <v>4</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="8">
         <v>13</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="8">
         <v>14</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="8">
         <v>53</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="8">
         <v>64</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="8">
         <v>55</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="8">
         <v>106</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="8">
         <v>96</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="8">
         <v>86</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="8">
         <v>55</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="8">
         <v>27</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="8">
         <v>23</v>
       </c>
     </row>
@@ -1695,58 +1695,58 @@
       <c r="A24" s="7">
         <v>44196</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <v>8</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>22</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="9">
         <v>12</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="9">
         <v>27</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <v>13</v>
       </c>
       <c r="H24" s="3">
         <v>2022</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="9">
         <v>13</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="9">
         <v>14</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="9">
         <v>37</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="9">
         <v>23</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="9">
         <v>33</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="9">
         <v>24</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="9">
         <v>50</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="9">
         <v>73</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="9">
         <v>38</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="9">
         <v>14</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="9">
         <v>16</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="9">
         <v>12</v>
       </c>
     </row>
@@ -1754,58 +1754,58 @@
       <c r="A25" s="6">
         <v>44227</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>6</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="8">
         <v>39</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <v>4</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="8">
         <v>43</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <v>11</v>
       </c>
       <c r="H25" s="3">
         <v>2023</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="8">
         <v>1</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="8">
         <v>12</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="8">
         <v>21</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="8">
         <v>37</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="8">
         <v>51</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="8">
         <v>50</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="8">
         <v>57</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="8">
         <v>184</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="8">
         <v>2236</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="8">
         <v>3202</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="8">
         <v>388</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="8">
         <v>46</v>
       </c>
     </row>
@@ -1813,19 +1813,19 @@
       <c r="A26" s="6">
         <v>44255</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="8">
         <v>6</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="8">
         <v>62</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="8">
         <v>13</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="8">
         <v>42</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1833,19 +1833,19 @@
       <c r="A27" s="6">
         <v>44286</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <v>15</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="8">
         <v>35</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="8">
         <v>14</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="8">
         <v>40</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <v>17</v>
       </c>
     </row>
@@ -1853,54 +1853,54 @@
       <c r="A28" s="6">
         <v>44316</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="8">
         <v>62</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="8">
         <v>32</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="8">
         <v>53</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="8">
         <v>43</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="8">
         <v>52</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44347</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="8">
         <v>57</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="8">
         <v>40</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="8">
         <v>64</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="8">
         <v>44</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="8">
         <v>59</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -1947,56 +1947,56 @@
       <c r="A30" s="6">
         <v>44377</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="8">
         <v>62</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="8">
         <v>46</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="8">
         <v>55</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="8">
         <v>70</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="8">
         <v>60</v>
       </c>
       <c r="H30" s="3">
         <v>2019</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="12">
+      <c r="J30" s="8">
         <v>50</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="8">
         <v>36</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="8">
         <v>40</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="8">
         <v>44</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="8">
         <v>48</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="8">
         <v>51</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="8">
         <v>61</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="8">
         <v>1669</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="8">
         <v>5849</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="8">
         <v>2948</v>
       </c>
-      <c r="T30" s="12">
+      <c r="T30" s="8">
         <v>1745</v>
       </c>
     </row>
@@ -2004,58 +2004,58 @@
       <c r="A31" s="6">
         <v>44408</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="8">
         <v>121</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="8">
         <v>58</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="8">
         <v>106</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="8">
         <v>111</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="8">
         <v>113</v>
       </c>
       <c r="H31" s="3">
         <v>2020</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="9">
         <v>53</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="9">
         <v>53</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="9">
         <v>64</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="9">
         <v>72</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="9">
         <v>157</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="9">
         <v>69</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="9">
         <v>66</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="9">
         <v>88</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="9">
         <v>48</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="9">
         <v>44</v>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="9">
         <v>27</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="9">
         <v>27</v>
       </c>
     </row>
@@ -2063,58 +2063,58 @@
       <c r="A32" s="6">
         <v>44439</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="8">
         <v>94</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="8">
         <v>37</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="8">
         <v>96</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="8">
         <v>53</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="8">
         <v>96</v>
       </c>
       <c r="H32" s="3">
         <v>2021</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="8">
         <v>43</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="8">
         <v>42</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="8">
         <v>40</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="8">
         <v>43</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="8">
         <v>44</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="8">
         <v>70</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="8">
         <v>111</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="8">
         <v>53</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q32" s="8">
         <v>89</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="8">
         <v>81</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="8">
         <v>39</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="8">
         <v>38</v>
       </c>
     </row>
@@ -2122,58 +2122,58 @@
       <c r="A33" s="6">
         <v>44469</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="8">
         <v>87</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="8">
         <v>59</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="8">
         <v>86</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="8">
         <v>89</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="8">
         <v>86</v>
       </c>
       <c r="H33" s="3">
         <v>2022</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="9">
         <v>34</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="9">
         <v>34</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="9">
         <v>43</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="9">
         <v>42</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="9">
         <v>40</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="9">
         <v>35</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="9">
         <v>44</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="9">
         <v>45</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="9">
         <v>35</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="9">
         <v>40</v>
       </c>
-      <c r="S33" s="13">
+      <c r="S33" s="9">
         <v>42</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="9">
         <v>30</v>
       </c>
     </row>
@@ -2181,58 +2181,58 @@
       <c r="A34" s="6">
         <v>44500</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="8">
         <v>51</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="8">
         <v>51</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="8">
         <v>55</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="8">
         <v>81</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="8">
         <v>59</v>
       </c>
       <c r="H34" s="3">
         <v>2023</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="8">
         <v>39</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="8">
         <v>40</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="8">
         <v>45</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="8">
         <v>112</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="8">
         <v>150</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="8">
         <v>45</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="8">
         <v>42</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="8">
         <v>39</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="Q34" s="8">
         <v>39</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="8">
         <v>3526</v>
       </c>
-      <c r="S34" s="12">
+      <c r="S34" s="8">
         <v>608</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="8">
         <v>46</v>
       </c>
     </row>
@@ -2240,19 +2240,19 @@
       <c r="A35" s="6">
         <v>44530</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="8">
         <v>20</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="8">
         <v>34</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="8">
         <v>27</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="8">
         <v>39</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="8">
         <v>26</v>
       </c>
     </row>
@@ -2260,19 +2260,19 @@
       <c r="A36" s="6">
         <v>44561</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="8">
         <v>23</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="8">
         <v>31</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="8">
         <v>23</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="8">
         <v>38</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="8">
         <v>24</v>
       </c>
     </row>
@@ -2280,54 +2280,54 @@
       <c r="A37" s="7">
         <v>44592</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="9">
         <v>6</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="9">
         <v>34</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="9">
         <v>13</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="9">
         <v>34</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="9">
         <v>14</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="10"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="12"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>44620</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="9">
         <v>12</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="9">
         <v>30</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="9">
         <v>14</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="9">
         <v>34</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="9">
         <v>14</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -2374,56 +2374,56 @@
       <c r="A39" s="7">
         <v>44651</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="9">
         <v>41</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="9">
         <v>33</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="9">
         <v>37</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="9">
         <v>43</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="9">
         <v>36</v>
       </c>
       <c r="H39" s="3">
         <v>2019</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="12">
+      <c r="J39" s="8">
         <v>14</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="8">
         <v>14</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="8">
         <v>25</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="8">
         <v>70</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="8">
         <v>51</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="8">
         <v>105</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="8">
         <v>814</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="8">
         <v>4207</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="8">
         <v>3985</v>
       </c>
-      <c r="S39" s="12">
+      <c r="S39" s="8">
         <v>1737</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="8">
         <v>49</v>
       </c>
     </row>
@@ -2431,58 +2431,58 @@
       <c r="A40" s="7">
         <v>44681</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="9">
         <v>14</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="9">
         <v>65</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="9">
         <v>23</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="9">
         <v>42</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="9">
         <v>14</v>
       </c>
       <c r="H40" s="3">
         <v>2020</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="9">
         <v>31</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="9">
         <v>24</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="9">
         <v>57</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="9">
         <v>61</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="9">
         <v>33</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="9">
         <v>25</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="9">
         <v>32</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="9">
         <v>70</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="9">
         <v>34</v>
       </c>
-      <c r="R40" s="13">
+      <c r="R40" s="9">
         <v>48</v>
       </c>
-      <c r="S40" s="13">
+      <c r="S40" s="9">
         <v>26</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="9">
         <v>13</v>
       </c>
     </row>
@@ -2490,58 +2490,58 @@
       <c r="A41" s="7">
         <v>44712</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="9">
         <v>43</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="9">
         <v>35</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="9">
         <v>33</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="9">
         <v>40</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="9">
         <v>31</v>
       </c>
       <c r="H41" s="3">
         <v>2021</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="8">
         <v>11</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="8">
         <v>6</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="8">
         <v>17</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="8">
         <v>52</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="8">
         <v>59</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="8">
         <v>60</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="8">
         <v>113</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="8">
         <v>96</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="Q41" s="8">
         <v>86</v>
       </c>
-      <c r="R41" s="12">
+      <c r="R41" s="8">
         <v>59</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="8">
         <v>26</v>
       </c>
-      <c r="T41" s="12">
+      <c r="T41" s="8">
         <v>24</v>
       </c>
     </row>
@@ -2549,58 +2549,58 @@
       <c r="A42" s="7">
         <v>44742</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="9">
         <v>30</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="9">
         <v>34</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="9">
         <v>24</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="9">
         <v>35</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="9">
         <v>24</v>
       </c>
       <c r="H42" s="3">
         <v>2022</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="9">
         <v>14</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="9">
         <v>14</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="9">
         <v>36</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="9">
         <v>14</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="9">
         <v>31</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="9">
         <v>24</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="9">
         <v>49</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="9">
         <v>73</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="9">
         <v>35</v>
       </c>
-      <c r="R42" s="13">
+      <c r="R42" s="9">
         <v>20</v>
       </c>
-      <c r="S42" s="13">
+      <c r="S42" s="9">
         <v>21</v>
       </c>
-      <c r="T42" s="13">
+      <c r="T42" s="9">
         <v>13</v>
       </c>
     </row>
@@ -2608,58 +2608,58 @@
       <c r="A43" s="7">
         <v>44773</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="9">
         <v>64</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="9">
         <v>36</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="9">
         <v>50</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="9">
         <v>44</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="9">
         <v>49</v>
       </c>
       <c r="H43" s="3">
         <v>2023</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="8">
         <v>4</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="8">
         <v>12</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="8">
         <v>14</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="8">
         <v>34</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="8">
         <v>56</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="8">
         <v>51</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="8">
         <v>57</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="8">
         <v>179</v>
       </c>
-      <c r="Q43" s="12">
+      <c r="Q43" s="8">
         <v>2239</v>
       </c>
-      <c r="R43" s="12">
+      <c r="R43" s="8">
         <v>3199</v>
       </c>
-      <c r="S43" s="12">
+      <c r="S43" s="8">
         <v>386</v>
       </c>
-      <c r="T43" s="12">
+      <c r="T43" s="8">
         <v>48</v>
       </c>
     </row>
@@ -2667,19 +2667,19 @@
       <c r="A44" s="7">
         <v>44804</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="9">
         <v>82</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="9">
         <v>36</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="9">
         <v>73</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="9">
         <v>45</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="9">
         <v>73</v>
       </c>
     </row>
@@ -2687,19 +2687,19 @@
       <c r="A45" s="7">
         <v>44834</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="9">
         <v>40</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="9">
         <v>33</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="9">
         <v>38</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="9">
         <v>35</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="9">
         <v>35</v>
       </c>
     </row>
@@ -2707,19 +2707,19 @@
       <c r="A46" s="7">
         <v>44865</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="9">
         <v>15</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="9">
         <v>35</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="9">
         <v>14</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="9">
         <v>40</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="9">
         <v>20</v>
       </c>
     </row>
@@ -2727,19 +2727,19 @@
       <c r="A47" s="7">
         <v>44895</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="9">
         <v>10</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="9">
         <v>35</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="9">
         <v>16</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="9">
         <v>42</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="9">
         <v>21</v>
       </c>
     </row>
@@ -2747,19 +2747,19 @@
       <c r="A48" s="7">
         <v>44926</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="9">
         <v>11</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="9">
         <v>27</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="9">
         <v>12</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="9">
         <v>30</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="9">
         <v>13</v>
       </c>
     </row>
@@ -2767,19 +2767,19 @@
       <c r="A49" s="6">
         <v>44957</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="8">
         <v>3</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="8">
         <v>32</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="8">
         <v>1</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="8">
         <v>39</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="8">
         <v>4</v>
       </c>
     </row>
@@ -2787,19 +2787,19 @@
       <c r="A50" s="6">
         <v>44985</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="8">
         <v>11</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="8">
         <v>37</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="8">
         <v>12</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="8">
         <v>40</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="8">
         <v>12</v>
       </c>
     </row>
@@ -2807,19 +2807,19 @@
       <c r="A51" s="6">
         <v>45016</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="8">
         <v>12</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="8">
         <v>38</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="8">
         <v>21</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="8">
         <v>45</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="8">
         <v>14</v>
       </c>
     </row>
@@ -2827,19 +2827,19 @@
       <c r="A52" s="6">
         <v>45046</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="8">
         <v>35</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="8">
         <v>44</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="8">
         <v>37</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="8">
         <v>112</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="8">
         <v>34</v>
       </c>
     </row>
@@ -2847,19 +2847,19 @@
       <c r="A53" s="6">
         <v>45077</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="8">
         <v>48</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="8">
         <v>80</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="8">
         <v>51</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="8">
         <v>150</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="8">
         <v>56</v>
       </c>
     </row>
@@ -2867,19 +2867,19 @@
       <c r="A54" s="6">
         <v>45107</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="8">
         <v>50</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="8">
         <v>24</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="8">
         <v>50</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="8">
         <v>45</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="8">
         <v>51</v>
       </c>
     </row>
@@ -2887,19 +2887,19 @@
       <c r="A55" s="6">
         <v>45138</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="8">
         <v>56</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="8">
         <v>23</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="8">
         <v>57</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="8">
         <v>42</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="8">
         <v>57</v>
       </c>
     </row>
@@ -2907,19 +2907,19 @@
       <c r="A56" s="6">
         <v>45169</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="8">
         <v>186</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="8">
         <v>22</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="8">
         <v>184</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="8">
         <v>39</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="8">
         <v>179</v>
       </c>
     </row>
@@ -2927,19 +2927,19 @@
       <c r="A57" s="6">
         <v>45199</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="8">
         <v>2247</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="8">
         <v>175</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="8">
         <v>2236</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="8">
         <v>39</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="8">
         <v>2239</v>
       </c>
     </row>
@@ -2947,19 +2947,19 @@
       <c r="A58" s="6">
         <v>45230</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="8">
         <v>3200</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="8">
         <v>4755</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="8">
         <v>3202</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="8">
         <v>3526</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="8">
         <v>3199</v>
       </c>
     </row>
@@ -2967,19 +2967,19 @@
       <c r="A59" s="6">
         <v>45260</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="8">
         <v>390</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="8">
         <v>508</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="8">
         <v>388</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="8">
         <v>608</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="8">
         <v>386</v>
       </c>
     </row>
@@ -2987,19 +2987,19 @@
       <c r="A60" s="6">
         <v>45291</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="8">
         <v>42</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="8">
         <v>20</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="8">
         <v>46</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="8">
         <v>46</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="8">
         <v>48</v>
       </c>
     </row>
